--- a/Excel/apply_macro.xlsx
+++ b/Excel/apply_macro.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parimal\Documents\GitHub\audacity-mr\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6184D4FD-3B50-450F-BCD1-FEA931C72FB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -187,159 +193,45 @@
     <t>&lt;  Back to: Manage Macros</t>
   </si>
   <si>
-    <t>मॅक्रो लागू करा - ऑडसिटी मॅन्युअल</t>
-  </si>
-  <si>
     <t>मॅक्रो लागू करा</t>
   </si>
   <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
     <t>येथे जा: सुचालन, शोध</t>
   </si>
   <si>
-    <t>मॅक्रो पॅलेट स्वयंचलितपणे सेट केलेल्या ऑर्डरमध्ये पूर्व-कॉन्फिगर केलेल्या आदेशांची मालिका लागू करते. संवाद आपल्याला एक मॅक्रो निवडण्याची परवानगी देतो (जो प्रभावीतेचा क्रम आहे आणि / किंवा साधने&gt; मॅक्रोचा वापर करून निर्मित कमांड तयार केले गेले आहेत) नंतर त्या मॅक्रोला सध्याच्या प्रोजेक्टच्या संपूर्णतेवर किंवा एकाच निर्देशिकेतील निवडलेल्या ऑडिओ फायलींवर लागू करा.</t>
-  </si>
-  <si>
     <t>याद्वारे प्रवेश केलेले:</t>
   </si>
   <si>
     <t>मॅक्रो व्यवस्थापित करा संवादात संकोचन बटण वापरणे, किंवा</t>
   </si>
   <si>
-    <t>थेट मेनू वरून साधने&gt; मॅक्रो लागू करा&gt; पॅलेट</t>
-  </si>
-  <si>
-    <t>मॅक्रो पॅलेट कित्येक वापरकर्ता-जोडलेले मॅक्रो दर्शवित आहे तसेच शिप केलेले "एमपी 3 रूपांतरण" आणि "फिकट एंड्स" मॅक्रोज दर्शवित आहे</t>
-  </si>
-  <si>
     <t>मॅक्रो निवडा</t>
   </si>
   <si>
-    <t>"मॅक्रो" यादीमध्ये आपण लागू करू इच्छित मॅक्रो निवडण्यासाठी मॅक्रोवर (किंवा अप किंवा डाउन कीबोर्ड बाण वापरा) वर डावे क्लिक करा.</t>
-  </si>
-  <si>
     <t>यावर मॅक्रो लागू करा</t>
   </si>
   <si>
     <t>दोन्ही मॅक्रो संवाद आणि मॅक्रो पॅलेट संवादात 'मॅक्रो ला लागू करा' बटणे आहेत.</t>
   </si>
   <si>
-    <t>प्रकल्प: सध्याच्या प्रकल्प विंडोमध्ये निवडलेला मॅक्रो लागू करण्यासाठी प्रोजेक्ट बटण वापरा.</t>
-  </si>
-  <si>
-    <t>फायली: सिंगल निर्देशिकेत असलेल्या निवडलेल्या बाह्य ऑडिओ फायलींवर निवडलेला मॅक्रो लागू करण्यासाठी फायली ... बटण वापरा.</t>
-  </si>
-  <si>
-    <t>आपल्याकडे आधीपासूनच सध्याच्या प्रकल्प विंडोमध्ये ऑडिओ असल्यास, फायलींमध्ये मॅक्रो लागू करण्यापूर्वी आपण तो प्रकल्प फाईल&gt; क्लोज वापरुन जतन आणि बंद करणे आवश्यक आहे.</t>
-  </si>
-  <si>
-    <t>आयात / निर्यात प्राधान्ये "सानुकूल मिश्रणाचा वापर करा" वर सेट केली असल्यासदेखील आपण मॅक्रोझचा वापर करून मल्टी-चॅनेल ऑडिओ फायली (उदाहरणार्थ 5.1 आसपासच्या ध्वनी फाइल्स) वर प्रक्रिया करू शकत नाही. आपण आयात करता त्या कोणत्याही मल्टि-चॅनेल फायली निर्यातीत मिसळल्या जातील.</t>
-  </si>
-  <si>
     <t>मॅक्रो चालविण्यापूर्वी आपण आपल्या प्रकल्पात घेतलेल्या पूर्व-विद्यमान निवडींवर कार्य करेल.</t>
   </si>
   <si>
-    <t>परंतु ऑडिओमधील निवडीवर परिणाम करण्यासाठी मॅक्रो आदेश उपलब्ध असल्याने आपल्या मॅक्रोद्वारे ही निवड ओव्हरड्राईड होऊ शकते.</t>
-  </si>
-  <si>
-    <t>विशेषतः सर्व (सर्व निवडा) संपूर्ण प्रोजेक्ट निवडेल आणि पॅरामीटरायझबल सिलेक्ट करेल (उदाहरणार्थ फडसाठी पहिल्या आणि शेवटच्या एक सेकंदाच्या ऑडिओची निवड केली गेलेल्या उदाहरणासाठी प्रदान केलेले फेड एंड्स मॅक्रो पहा).</t>
-  </si>
-  <si>
     <t>प्रकल्प</t>
   </si>
   <si>
-    <t>सध्याच्या प्रकल्प विंडोमध्ये निवडलेला मॅक्रो लागू करण्यासाठी प्रोजेक्ट वापरा.</t>
-  </si>
-  <si>
-    <t>या ऑप्शन्सचा विशिष्ट हेतू म्हणजे इफेक्ट ऑटोमेशन - आपण प्रभावित करत असलेल्या ऑडिओच्या प्रकारासाठी आपल्याला योग्यरित्या कार्य करण्यासाठी आढळलेल्या परिणामाचा वापर आणि परिणाम लागू करण्याची ऑर्डर, प्रोजेक्टवर परिणामांचा क्रम लागू करा. हे वेळेची बचत करते आणि आपल्या कार्यप्रवाहात सुसंगतता प्रदान करते.</t>
-  </si>
-  <si>
-    <t>मॅक्रोमधील प्रभाव निवडलेल्या ऑडिओ ट्रॅकमधील वेव्हफॉर्मच्या निवडलेल्या प्रदेशात लागू होतात. निर्यात ऑडिओ संवादची अधिक लवचिकता वापरण्यासाठी सामान्यतः निवडलेल्या मॅक्रोमध्ये निर्यात कमांडचा समावेश नसतो.</t>
-  </si>
-  <si>
-    <t>मॅक्रोमध्ये एक्सपोर्ट कमांड समाविष्ट केल्यास, ट्रॅक किंवा प्रदेश निवडीचा विचार न करता संपूर्ण प्रोजेक्ट ऑडिओ निर्यात केला जातो. म्हणून जर या प्रकल्पात अनेक ऑडिओ ट्रॅक असतील तर ते ट्रॅक कंट्रोल पॅनेलवर कोणतेही ट्रॅक नि: शब्द केल्याशिवाय एकत्रित केले जातील.</t>
-  </si>
-  <si>
-    <t>निर्यात केलेल्या फायली “साफ” नावाच्या फोल्डरमध्ये सेव्ह केल्या जातील.</t>
-  </si>
-  <si>
-    <t>प्रोजेक्टमधील ऑडिओ आयात केलेल्या फाइल किंवा फायलींकडून आला असेल तर, "साफ केलेले" फोल्डर त्या निर्देशिकेच्या आत असेल जिथून प्रथम फाइल आयात केली गेली. मूळ फायली बदलल्या नाहीत.</t>
-  </si>
-  <si>
-    <t>अन्यथा, संदेश प्रॉम्प्टमध्ये "साफ" फोल्डरचे स्थान सूचित केले जाईल ज्यात निर्यात केलेली फाईल असेल. "साफ केलेले" फोल्डर मॅक्रो प्रक्रियेने निर्यात केलेल्या शेवटच्या ठिकाणी असेल. यापूर्वी कधीही निर्यात करण्यासाठी मॅक्रो प्रक्रिया वापरली नसल्यास, "निर्यात केलेले" फोल्डर सध्या ज्या ठिकाणी फाइल निर्यात संवाद उघडेल त्या ठिकाणी असेल.</t>
-  </si>
-  <si>
-    <t>फायली ...</t>
-  </si>
-  <si>
-    <t>सिंगल निर्देशिकेत असलेल्या निवडलेल्या बाह्य ऑडिओ फायलींवर निवडलेला मॅक्रो लागू करण्यासाठी फायली ... बटण वापरा. आपल्याकडे आधीपासूनच सध्याच्या प्रकल्प विंडोमध्ये ऑडिओ असल्यास, फायलींमध्ये मॅक्रो लागू करण्यापूर्वी आपण तो प्रकल्प फाईल&gt; क्लोज वापरुन जतन आणि बंद करणे आवश्यक आहे.</t>
-  </si>
-  <si>
-    <t>या पर्यायाचा विशिष्ट हेतू बॅच प्रक्रिया करणे - एकाधिक ऑडिओ फायलींवर मॅक्रो लागू करा जेणेकरून त्यांना एक किंवा अधिक प्रभाव लागू करा आणि / किंवा त्यांना दुसर्‍या फाईल स्वरूपनात रूपांतरित करा. ऑडॅसिटी द्वारा समर्थित कोणत्याही फाईल स्वरूपनातून आपण डब्ल्यूएव्ही, एमपी 3, ओजीजी किंवा एफएलएसीमध्ये रूपांतरित करू शकता. निवडलेल्या मॅक्रोमध्ये "निर्यात" चरण समाविष्ट करणे आवश्यक आहे किंवा प्रक्रिया केलेला ऑडिओ जतन केला जाणार नाही.</t>
-  </si>
-  <si>
-    <t>एका वेळी 500 पेक्षा जास्त फायलींवर प्रक्रिया न करण्याची शिफारस केली जाते.</t>
-  </si>
-  <si>
-    <t>एक मानक फाईल ओपन डायलॉग बॉक्स दिसेल. निर्देशिका निवडा त्यानंतर आपण त्या निर्देशिकेत एक किंवा अनेक समर्थित ऑडिओ फायली निवडू शकता, परंतु ऑडेसिटी एओपी प्रोजेक्ट फायली नाही. आपण त्या निर्देशिकेच्या बाहेरील फायली निवडू शकत नाही आणि त्या निर्देशिकेत असलेल्या फोल्डरमधील फायलींवर प्रक्रिया केली जाणार नाही. म्हणूनच आपण मॅक्रो लागू करण्यापूर्वी सर्व फोल्डर ऑडिओ फायली एका फोल्डरमध्ये ठेवणे सोयीचे आहे.</t>
-  </si>
-  <si>
-    <t>आपण प्रक्रिया करू इच्छित ऑडिओ फायली निवडल्यानंतर, "उघडा" निवडा.</t>
-  </si>
-  <si>
-    <t>प्रत्येक फाईल ऑडॅसिटीमध्ये आयात केली जाईल आणि प्रक्रिया केली जाईल, आपण मॅक्रोमध्ये निवडलेल्या स्वरूपात निर्यात केली जाईल, त्यानंतर प्रक्रिया केलेले ऑडिओ काढले जाईल जेणेकरून वापरण्यात आलेली तात्पुरती डिस्क स्पेस साफ होईल.</t>
-  </si>
-  <si>
-    <t>निर्यात केलेल्या फायली ज्या मूळ फाइल्स आल्या त्याच फोल्डरमध्ये “क्लीन” नावाच्या फोल्डरमध्ये सेव्ह केल्या जातील. मूळ फायली बदलल्या नाहीत.</t>
-  </si>
-  <si>
-    <t>जेव्हा फायलींवर मॅक्रो लागू केला जातो, तेव्हा संपूर्ण फाईल आयात करणे आणि त्यावर प्रक्रिया करणे हा एकच पर्याय असतो. अशा प्रकारे मॅक्रोमधील एखादी क्रिया किंवा प्रभाव (जसे की कट किंवा ट्रंककेट सायलेन्स) काही ऑडिओ काढत नाही तोपर्यंत संपूर्ण फाईल निर्यात केली जाईल.</t>
-  </si>
-  <si>
-    <t>निर्यात करण्यापूर्वी ऑडिओमध्ये बदल करत असल्यास, वेळ निवडा कार्य ऑडिओ निवडण्यासाठी किंवा सुधारित करण्यासाठी निवडण्यासाठी उपयुक्त ठरू शकेल.</t>
-  </si>
-  <si>
-    <t>काही पर्यायी Nyquist प्लगइन मध्ये पॅरामीटर्स आहेत</t>
-  </si>
-  <si>
-    <t>विशिष्ट लांबीद्वारे ऑडिओ ट्रिम किंवा वाढवा आणि Nyquist गणना देखील करू शकते, म्हणून मॅक्रोमधून Nyquist प्लग-इन वापरणे उपयुक्त ठरेल.</t>
-  </si>
-  <si>
     <t>विस्तृत करा</t>
   </si>
   <si>
-    <t>पूर्ण-आकारात, फुल-फंक्शन मॅक्रो मॅक्रो संवादवर परत जाण्यासाठी विस्तार वापरा.</t>
-  </si>
-  <si>
-    <t>मॅक्रो मॅनेज करा संवादवर लागू मॅक्रो बटणे देखील उपलब्ध आहेत - जेणेकरून सर्व मॅक्रो ऑपरेशन्स त्या पूर्ण संवादामधून केले जाऊ शकतात.</t>
-  </si>
-  <si>
-    <t>प्रभाव प्रीसेट्स</t>
-  </si>
-  <si>
-    <t>मॅक्रोमध्ये फक्त एकच कमांड असणे शक्य असल्याने आपण आपल्या पसंतीच्या सेटिंग्जसह नियमितपणे वापरलेले प्रभाव संग्रहित करण्यासाठी मॅक्रो वापरू शकता.</t>
-  </si>
-  <si>
     <t>हे मॅक्रोस पॅलेट प्रभाव असलेल्या प्रीसेटसाठी उपयुक्त आहे. मॅक्रो लावल्यानंतर ते खुले राहते आणि आपण दुसरे निवडू शकता आणि ते लागू करू शकता.</t>
   </si>
   <si>
-    <t>आपण इच्छित असल्यास, प्रीसेट देखील निवडी समायोजित करू शकतात.</t>
-  </si>
-  <si>
     <t>याच्या काही सुचविलेल्या उदाहरणांसाठी मॅक्रो उदाहरणे पहा.</t>
   </si>
   <si>
     <t>संवादातून बाहेर पडण्यासाठी रद्द करा</t>
   </si>
   <si>
-    <t>संवाद स्क्रीनवर खुले राहील, परंतु आपल्याला इतर ऑडेसिटी फंक्शन्स करण्याची परवानगी दिली जाईल.</t>
-  </si>
-  <si>
-    <t>संवाद डिसमिस करण्यासाठी फक्त रद्द करा बटणावर क्लिक करा</t>
-  </si>
-  <si>
     <t>मॅक्रो उदाहरणे</t>
   </si>
   <si>
@@ -350,13 +242,127 @@
   </si>
   <si>
     <t>&lt;कडे परत: मॅक्रो व्यवस्थापित करा</t>
+  </si>
+  <si>
+    <t>मॅक्रो लागू करा - ओड्यासिटी माहितीपुस्तिका</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकास माहितीपुस्तिका वरुन</t>
+  </si>
+  <si>
+    <t>परंतु ध्वनीमधील निवडीवर परिणाम करण्यासाठी मॅक्रो आदेश उपलब्ध असल्याने आपल्या मॅक्रोद्वारे ही निवड ओव्हरड्राईड होऊ शकते.</t>
+  </si>
+  <si>
+    <t>निर्यात करण्यापूर्वी ध्वनीमध्ये बदल करत असल्यास, वेळ निवडा कार्य ध्वनी निवडण्यासाठी किंवा सुधारित करण्यासाठी निवडण्यासाठी उपयुक्त ठरू शकेल.</t>
+  </si>
+  <si>
+    <t>विशिष्ट लांबीद्वारे ध्वनी ट्रिम किंवा वाढवा आणि Nyquist गणना देखील करू शकते, म्हणून मॅक्रोमधून Nyquist प्लग-इन वापरणे उपयुक्त ठरेल.</t>
+  </si>
+  <si>
+    <t>मॅक्रो फळी स्वयंचलितपणे स्थापित केलेल्या क्रमामध्ये पूर्व-कॉन्फिगर केलेल्या आदेशांची मालिका लागू करते. संवाद आपल्याला एक मॅक्रो निवडण्याची परवानगी देतो (जो प्रभावीतेचा क्रम आहे आणि / किंवा साधने&gt; मॅक्रोचा वापर करून निर्मित आज्ञा तयार केले गेले आहेत) नंतर त्या मॅक्रोला सध्याच्या प्रकल्पाच्या संपूर्णतेवर किंवा एकाच निर्देशिकेतील निवडलेल्या ध्वनी धारीकांवर लागू करा.</t>
+  </si>
+  <si>
+    <t>थेट यादी वरून साधने&gt; मॅक्रो लागू करा&gt; फळी</t>
+  </si>
+  <si>
+    <t>मॅक्रो फळी कित्येक वापरकर्ता-जोडलेले मॅक्रो दर्शवित आहे तसेच नेलेले "एमपी 3 रूपांतरण" आणि "फिकट शेवट" मॅक्रोज दर्शवित आहे</t>
+  </si>
+  <si>
+    <t>"मॅक्रो" यादीमध्ये आपण लागू करू इच्छित मॅक्रो निवडण्यासाठी मॅक्रोवर (किंवा वर किंवा खाली कीबोर्ड बाण वापरा) वर डावे क्लिक करा.</t>
+  </si>
+  <si>
+    <t>प्रकल्प: सध्याच्या प्रकल्प विंडोमध्ये निवडलेला मॅक्रो लागू करण्यासाठी प्रकल्प बटण वापरा.</t>
+  </si>
+  <si>
+    <t>धारिका: एकेरी निर्देशिकेत असलेल्या निवडलेल्या बाह्य ध्वनी धारीकांवर निवडलेला मॅक्रो लागू करण्यासाठी धारिका ... बटण वापरा.</t>
+  </si>
+  <si>
+    <t>आपल्याकडे आधीपासूनच सध्याच्या प्रकल्प विंडोमध्ये ध्वनी असल्यास, धारीकांमध्ये मॅक्रो लागू करण्यापूर्वी आपण तो प्रकल्प धारिका&gt; बंद वापरुन जतन आणि बंद करणे आवश्यक आहे.</t>
+  </si>
+  <si>
+    <t>आपण इच्छित असल्यास, प्रीस्थापित देखील निवडी समायोजित करू शकतात.</t>
+  </si>
+  <si>
+    <t>धारिका ...</t>
+  </si>
+  <si>
+    <t>आपण प्रक्रिया करू इच्छित ध्वनी धारिका निवडल्यानंतर, "उघडा" निवडा.</t>
+  </si>
+  <si>
+    <t>आयात / निर्यात प्राधान्ये "सानुकूल मिश्रणाचा वापर करा" वर स्थापित केली असल्यासदेखील आपण मॅक्रोझचा वापर करून बहु-वाहिनी ध्वनी धारिका (उदाहरणार्थ ५.१ आसपासच्या ध्वनी धारिका) वर प्रक्रिया करू शकत नाही. आपण आयात करता त्या कोणत्याही बहु-वाहिनी धारिका निर्यातीत मिसळल्या जातील.</t>
+  </si>
+  <si>
+    <t>सध्याच्या प्रकल्प विंडोमध्ये निवडलेला मॅक्रो लागू करण्यासाठी प्रकल्प वापरा.</t>
+  </si>
+  <si>
+    <t>विशेषतः सर्व (सर्व निवडा) संपूर्ण प्रकल्प निवडेल आणि मापदंडनिय निवडेल (उदाहरणार्थ फिकटसाठी पहिल्या आणि शेवटच्या एक सेकंदाच्या ध्वनीची निवड केली गेलेल्या उदाहरणासाठी प्रदान केलेले फिकट शेवट मॅक्रो पहा).</t>
+  </si>
+  <si>
+    <t>या पर्यायचा विशिष्ट हेतू म्हणजे प्रभाव स्वयंचलन - आपण प्रभावित करत असलेल्या ध्वनीच्या प्रकारासाठी आपल्याला योग्यरित्या कार्य करण्यासाठी आढळलेल्या परिणामाचा वापर आणि परिणाम लागू करण्याची आज्ञा, प्रकल्पवर परिणामांचा क्रम लागू करा. हे वेळेची बचत करते आणि आपल्या कार्यप्रवाहात सुसंगतता प्रदान करते.</t>
+  </si>
+  <si>
+    <t>मॅक्रोमधील प्रभाव निवडलेल्या ध्वनी गीतपट्टामधील तरंगांच्या निवडलेल्या प्रदेशात लागू होतात. निर्यात ध्वनी संवादची अधिक लवचिकता वापरण्यासाठी सामान्यतः निवडलेल्या मॅक्रोमध्ये निर्यात आज्ञेचा समावेश नसतो.</t>
+  </si>
+  <si>
+    <t>मॅक्रोमध्ये निर्यात आज्ञा समाविष्ट केल्यास, गीतपट्टा किंवा प्रदेश निवडीचा विचार न करता संपूर्ण प्रकल्प ध्वनी निर्यात केला जातो. म्हणून जर या प्रकल्पात अनेक ध्वनी गीतपट्टा असतील तर ते गीतपट्टा नियंत्रण पॅनेलवर कोणतेही गीतपट्टा नि: शब्द केल्याशिवाय एकत्रित केले जातील.</t>
+  </si>
+  <si>
+    <t>निर्यात केलेल्या धारिका “साफ” नावाच्या फोल्डरमध्ये जतन केल्या जातील.</t>
+  </si>
+  <si>
+    <t>प्रकल्पमधील ध्वनी आयात केलेल्या धारिका किंवा धारिकांकडून आला असेल तर, "साफ केलेले" फोल्डर त्या निर्देशिकेच्या आत असेल जिथून प्रथम धारिका आयात केली गेली. मूळ धारिका बदलल्या नाहीत.</t>
+  </si>
+  <si>
+    <t>अन्यथा, संदेश प्रॉम्प्टमध्ये "साफ" फोल्डरचे स्थान सूचित केले जाईल ज्यात निर्यात केलेली धारिका असेल. "साफ केलेले" फोल्डर मॅक्रो प्रक्रियेने निर्यात केलेल्या शेवटच्या ठिकाणी असेल. यापूर्वी कधीही निर्यात करण्यासाठी मॅक्रो प्रक्रिया वापरली नसल्यास, "निर्यात केलेले" फोल्डर सध्या ज्या ठिकाणी धारिका निर्यात संवाद उघडेल त्या ठिकाणी असेल.</t>
+  </si>
+  <si>
+    <t>एकेरी निर्देशिकेत असलेल्या निवडलेल्या बाह्य ध्वनी धारिकांवर निवडलेला मॅक्रो लागू करण्यासाठी धारिका ... बटण वापरा. आपल्याकडे आधीपासूनच सध्याच्या प्रकल्प विंडोमध्ये ध्वनी असल्यास, धारिकांमध्ये मॅक्रो लागू करण्यापूर्वी आपण तो प्रकल्प धारिका&gt; बंद वापरुन जतन आणि बंद करणे आवश्यक आहे.</t>
+  </si>
+  <si>
+    <t>या पर्यायाचा विशिष्ट हेतू फळी प्रक्रिया करणे - एकाधिक ध्वनी धारिकांवर मॅक्रो लागू करा जेणेकरून त्यांना एक किंवा अधिक प्रभाव लागू करा आणि / किंवा त्यांना दुसर्‍या धारिका स्वरूपनात रूपांतरित करा. ओड्यासिटी द्वारा समर्थित कोणत्याही धारिका स्वरूपनातून आपण डब्ल्यूएव्ही, एमपी 3, ओजीजी किंवा एफएलएसीमध्ये रूपांतरित करू शकता. निवडलेल्या मॅक्रोमध्ये "निर्यात" चरण समाविष्ट करणे आवश्यक आहे किंवा प्रक्रिया केलेला ध्वनी जतन केला जाणार नाही.</t>
+  </si>
+  <si>
+    <t>एका वेळी ५०० पेक्षा जास्त धारिकांवर प्रक्रिया न करण्याची शिफारस केली जाते.</t>
+  </si>
+  <si>
+    <t>एक मानक धारिका उघड संवाद बॉक्स दिसेल. निर्देशिका निवडा त्यानंतर आपण त्या निर्देशिकेत एक किंवा अनेक समर्थित ध्वनी धारिका निवडू शकता, परंतु ओड्यासिटी एओपी प्रकल्प धारिका नाही. आपण त्या निर्देशिकेच्या बाहेरील धारिका निवडू शकत नाही आणि त्या निर्देशिकेत असलेल्या फोल्डरमधील धारिकांवर प्रक्रिया केली जाणार नाही. म्हणूनच आपण मॅक्रो लागू करण्यापूर्वी सर्व फोल्डर ध्वनी धारिका एका फोल्डरमध्ये ठेवणे सोयीचे आहे.</t>
+  </si>
+  <si>
+    <t>प्रत्येक धारिका ओड्यासिटीमध्ये आयात केली जाईल आणि प्रक्रिया केली जाईल, आपण मॅक्रोमध्ये निवडलेल्या स्वरूपात निर्यात केली जाईल, त्यानंतर प्रक्रिया केलेले ध्वनी काढले जाईल जेणेकरून वापरण्यात आलेली तात्पुरती डिस्क जागा साफ होईल.</t>
+  </si>
+  <si>
+    <t>निर्यात केलेल्या धारिका ज्या मूळ धारिका्स आल्या त्याच फोल्डरमध्ये “साफ” नावाच्या फोल्डरमध्ये सेव्ह केल्या जातील. मूळ धारिका बदलल्या नाहीत.</t>
+  </si>
+  <si>
+    <t>जेव्हा धारिकांवर मॅक्रो लागू केला जातो, तेव्हा संपूर्ण धारिका आयात करणे आणि त्यावर प्रक्रिया करणे हा एकच पर्याय असतो. अशा प्रकारे मॅक्रोमधील एखादी क्रिया किंवा प्रभाव (जसे की कापणे किंवा ट्रंककेट शांतता) काही ध्वनी काढत नाही तोपर्यंत संपूर्ण धारिका निर्यात केली जाईल.</t>
+  </si>
+  <si>
+    <t>काही पर्यायी Nyquist प्लगइन मध्ये मापदंड आहेत</t>
+  </si>
+  <si>
+    <t>पूर्ण-आकारात, पूर्ण-चलित मॅक्रो मॅक्रो संवादवर परत जाण्यासाठी विस्तार वापरा.</t>
+  </si>
+  <si>
+    <t>मॅक्रो व्यवस्थापित करा संवादवर लागू मॅक्रो बटणे देखील उपलब्ध आहेत - जेणेकरून सर्व मॅक्रो कार्यांना त्या पूर्ण संवादामधून केले जाऊ शकतात.</t>
+  </si>
+  <si>
+    <t>मॅक्रोमध्ये फक्त एकच आज्ञा असणे शक्य असल्याने आपण आपल्या पसंतीच्या समायोजनसह नियमितपणे वापरलेले प्रभाव संग्रहित करण्यासाठी मॅक्रो वापरू शकता.</t>
+  </si>
+  <si>
+    <t>संवाद स्क्रीनवर खुले राहील, परंतु आपल्याला इतर ओड्यासिटी कार्ये करण्याची परवानगी दिली जाईल.</t>
+  </si>
+  <si>
+    <t>संवाद रद्द करण्यासाठी फक्त रद्द करा बटणावर क्लिक करा</t>
+  </si>
+  <si>
+    <t>प्रभाव प्रीसेट</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,10 +414,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,6 +431,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -465,7 +485,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -497,9 +517,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -531,6 +569,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -706,635 +762,641 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="84.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="106.44140625" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="C15" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C18" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="C19" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="C20" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="C22" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="C23" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="C24" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="C26" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="C27" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="C28" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="C29" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="C30" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="C31" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="C32" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C33" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="C33" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="C34" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="C35" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="C36" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="C37" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C38" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="C38" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="C39" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="C40" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C41" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="C41" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C42" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="C42" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C43" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="C43" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C44" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="C44" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C45" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="C45" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C46" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="C46" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C47" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="C47" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C48" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="C48" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C49" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="C49" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C50" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="C50" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C51" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="C51" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C52" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="C52" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C53" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="C53" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C54" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="C54" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C55" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="C55" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="C56" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C57" t="s">
-        <v>111</v>
+      <c r="C57" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
